--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_yyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_yyn_pf_sc_results_branch.xlsx
@@ -80,10 +80,10 @@
     <t>pf_q_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_from_deg</t>
+    <t>pf_ikss_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_to_deg</t>
+    <t>pf_ikss_to_degree</t>
   </si>
   <si>
     <t>pf_vm_from_pu</t>
@@ -92,10 +92,10 @@
     <t>pf_vm_to_pu</t>
   </si>
   <si>
-    <t>pf_va_from_deg</t>
+    <t>pf_va_from_degree</t>
   </si>
   <si>
-    <t>pf_va_to_deg</t>
+    <t>pf_va_to_degree</t>
   </si>
   <si>
     <t>Line_0</t>
@@ -164,76 +164,76 @@
     <t>pf_p_c_to_mw</t>
   </si>
   <si>
-    <t>pf_q_a_from_mw</t>
+    <t>pf_q_a_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_from_mw</t>
+    <t>pf_q_b_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_from_mw</t>
+    <t>pf_q_c_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_a_to_mw</t>
+    <t>pf_q_a_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_to_mw</t>
+    <t>pf_q_b_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_to_mw</t>
+    <t>pf_q_c_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_a_from_deg</t>
+    <t>pf_ikss_a_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_from_deg</t>
+    <t>pf_ikss_b_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_from_deg</t>
+    <t>pf_ikss_c_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_a_to_deg</t>
+    <t>pf_ikss_a_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_to_deg</t>
+    <t>pf_ikss_b_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_to_deg</t>
+    <t>pf_ikss_c_to_degree</t>
   </si>
   <si>
     <t>pf_vm_a_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_from_bus_pu</t>
+    <t>pf_vm_b_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_from_bus_pu</t>
+    <t>pf_vm_c_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_a_to_bus_pu</t>
+    <t>pf_vm_a_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_to_bus_pu</t>
+    <t>pf_vm_b_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_to_bus_pu</t>
+    <t>pf_vm_c_to_pu</t>
   </si>
   <si>
-    <t>pf_va_a_from_bus_deg</t>
+    <t>pf_va_a_from_degree</t>
   </si>
   <si>
-    <t>pf_va_b_from_bus_deg</t>
+    <t>pf_va_b_from_degree</t>
   </si>
   <si>
-    <t>pf_va_c_from_bus_deg</t>
+    <t>pf_va_c_from_degree</t>
   </si>
   <si>
-    <t>pf_va_a_to_bus_deg</t>
+    <t>pf_va_a_to_degree</t>
   </si>
   <si>
-    <t>pf_va_b_to_bus_deg</t>
+    <t>pf_va_b_to_degree</t>
   </si>
   <si>
-    <t>pf_va_c_to_bus_deg</t>
+    <t>pf_va_c_to_degree</t>
   </si>
 </sst>
 </file>

--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_yyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_yyn_pf_sc_results_branch.xlsx
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352478</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0.9526279648047562</v>
       </c>
       <c r="AL2">
-        <v>-4.07827035008308E-12</v>
+        <v>1.591102290394586E-12</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999773</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999874</v>
       </c>
       <c r="AO2">
-        <v>-1.247331485818115E-11</v>
+        <v>1.57040048766705E-12</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999521</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999613</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1250,22 +1250,22 @@
         <v>0.9526279648047562</v>
       </c>
       <c r="AL3">
-        <v>-1.427385555746306E-11</v>
+        <v>1.33885638337923E-12</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999472</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999793</v>
+        <v>-179.999999999955</v>
       </c>
       <c r="AO3">
-        <v>-1.247331485818115E-11</v>
+        <v>1.57040048766705E-12</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999521</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999613</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1381,22 +1381,22 @@
         <v>0.9526279648047562</v>
       </c>
       <c r="AL4">
-        <v>-1.429441254449796E-11</v>
+        <v>1.452591567033535E-12</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999469</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999552</v>
       </c>
       <c r="AO4">
-        <v>-1.247331485818115E-11</v>
+        <v>1.57040048766705E-12</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999521</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999613</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1512,22 +1512,22 @@
         <v>0.9526279648057691</v>
       </c>
       <c r="AL5">
-        <v>-1.427385555746306E-11</v>
+        <v>1.33885638337923E-12</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>179.9999999999472</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999999793</v>
+        <v>-179.999999999955</v>
       </c>
       <c r="AO5">
-        <v>-1.429441254449796E-11</v>
+        <v>1.452591567033535E-12</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>179.9999999999469</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999552</v>
       </c>
     </row>
   </sheetData>
@@ -1787,22 +1787,22 @@
         <v>0.922941106001154</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293676</v>
+        <v>6.057814235963239E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646638</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769574</v>
+        <v>122.4159013159209</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943076</v>
+        <v>6.925037144414312E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.867278420403</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286496</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1918,22 +1918,22 @@
         <v>0.922941106001154</v>
       </c>
       <c r="AL3">
-        <v>15.27863230041746</v>
+        <v>6.538438094191336E-13</v>
       </c>
       <c r="AM3">
-        <v>-104.041078218862</v>
+        <v>-144.208653581376</v>
       </c>
       <c r="AN3">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943076</v>
+        <v>6.925037144414312E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.867278420403</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286496</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2049,22 +2049,22 @@
         <v>0.922941106001154</v>
       </c>
       <c r="AL4">
-        <v>15.27863230041746</v>
+        <v>6.365009885364085E-13</v>
       </c>
       <c r="AM4">
-        <v>-104.041078218862</v>
+        <v>-144.208653581376</v>
       </c>
       <c r="AN4">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943076</v>
+        <v>6.925037144414312E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.867278420403</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286496</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2180,22 +2180,22 @@
         <v>0.9259084304691398</v>
       </c>
       <c r="AL5">
-        <v>15.27863230041746</v>
+        <v>6.538438094191336E-13</v>
       </c>
       <c r="AM5">
-        <v>-104.041078218862</v>
+        <v>-144.208653581376</v>
       </c>
       <c r="AN5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO5">
-        <v>15.27863230041746</v>
+        <v>6.365009885364085E-13</v>
       </c>
       <c r="AP5">
-        <v>-104.041078218862</v>
+        <v>-144.208653581376</v>
       </c>
       <c r="AQ5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
     </row>
   </sheetData>
@@ -2455,22 +2455,22 @@
         <v>0.922941106001154</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293676</v>
+        <v>6.057814235963239E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646638</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769574</v>
+        <v>122.4159013159209</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943076</v>
+        <v>6.925037144414312E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.867278420403</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286496</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2586,22 +2586,22 @@
         <v>0.922941106001154</v>
       </c>
       <c r="AL3">
-        <v>15.27863230041746</v>
+        <v>6.538438094191336E-13</v>
       </c>
       <c r="AM3">
-        <v>-104.041078218862</v>
+        <v>-144.208653581376</v>
       </c>
       <c r="AN3">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943076</v>
+        <v>6.925037144414312E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.867278420403</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286496</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2717,22 +2717,22 @@
         <v>0.922941106001154</v>
       </c>
       <c r="AL4">
-        <v>15.27863230041746</v>
+        <v>6.365009885364085E-13</v>
       </c>
       <c r="AM4">
-        <v>-104.041078218862</v>
+        <v>-144.208653581376</v>
       </c>
       <c r="AN4">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943076</v>
+        <v>6.925037144414312E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.867278420403</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286496</v>
+        <v>128.2389811279578</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2848,22 +2848,22 @@
         <v>0.9259084304691398</v>
       </c>
       <c r="AL5">
-        <v>15.27863230041746</v>
+        <v>6.538438094191336E-13</v>
       </c>
       <c r="AM5">
-        <v>-104.041078218862</v>
+        <v>-144.208653581376</v>
       </c>
       <c r="AN5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
       <c r="AO5">
-        <v>15.27863230041746</v>
+        <v>6.365009885364085E-13</v>
       </c>
       <c r="AP5">
-        <v>-104.041078218862</v>
+        <v>-144.208653581376</v>
       </c>
       <c r="AQ5">
-        <v>162.4426920027739</v>
+        <v>131.5664950534547</v>
       </c>
     </row>
   </sheetData>
@@ -3123,22 +3123,22 @@
         <v>0.8660254037883346</v>
       </c>
       <c r="AL2">
-        <v>3.076853589320319E-11</v>
+        <v>7.917329727573314E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.999999999902</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.9999999998949</v>
       </c>
       <c r="AO2">
-        <v>1.723411383689773E-10</v>
+        <v>5.369173410328852E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998194</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3254,22 +3254,22 @@
         <v>0.8660254037883346</v>
       </c>
       <c r="AL3">
-        <v>1.923510253919868E-10</v>
+        <v>3.682839488060667E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
       <c r="AO3">
-        <v>1.723411383689773E-10</v>
+        <v>5.369173410328852E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998194</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3385,22 +3385,22 @@
         <v>0.8660254037883346</v>
       </c>
       <c r="AL4">
-        <v>1.923582259032991E-10</v>
+        <v>4.490569187661566E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994165</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
       <c r="AO4">
-        <v>1.723411383689773E-10</v>
+        <v>5.369173410328852E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998194</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -3516,22 +3516,22 @@
         <v>0.8660254037890389</v>
       </c>
       <c r="AL5">
-        <v>1.923510253919868E-10</v>
+        <v>3.682839488060667E-13</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AN5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
       <c r="AO5">
-        <v>1.923582259032991E-10</v>
+        <v>4.490569187661566E-13</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>-179.9999999994165</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
     </row>
   </sheetData>
@@ -3791,22 +3791,22 @@
         <v>0.8660254037883346</v>
       </c>
       <c r="AL2">
-        <v>3.076853589320319E-11</v>
+        <v>7.917329727573314E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.999999999902</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.9999999998949</v>
       </c>
       <c r="AO2">
-        <v>1.723411383689773E-10</v>
+        <v>5.369173410328852E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998194</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3922,22 +3922,22 @@
         <v>0.8660254037883346</v>
       </c>
       <c r="AL3">
-        <v>1.923510253919868E-10</v>
+        <v>3.682839488060667E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
       <c r="AO3">
-        <v>1.723411383689773E-10</v>
+        <v>5.369173410328852E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998194</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4053,22 +4053,22 @@
         <v>0.8660254037883346</v>
       </c>
       <c r="AL4">
-        <v>1.923582259032991E-10</v>
+        <v>4.490569187661566E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994165</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
       <c r="AO4">
-        <v>1.723411383689773E-10</v>
+        <v>5.369173410328852E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998194</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4184,22 +4184,22 @@
         <v>0.8660254037890389</v>
       </c>
       <c r="AL5">
-        <v>1.923510253919868E-10</v>
+        <v>3.682839488060667E-13</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-179.9999999994164</v>
       </c>
       <c r="AN5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994127</v>
       </c>
       <c r="AO5">
-        <v>1.923582259032991E-10</v>
+        <v>4.490569187661566E-13</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>-179.9999999994165</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999997996</v>
+        <v>179.9999999994125</v>
       </c>
     </row>
   </sheetData>
@@ -4459,22 +4459,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536514</v>
+        <v>3.726724087904993E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758096</v>
+        <v>-141.4823925534192</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546082</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155594</v>
+        <v>2.599745963568909E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4590,22 +4590,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL3">
-        <v>14.83811452875883</v>
+        <v>2.119857453272499E-13</v>
       </c>
       <c r="AM3">
-        <v>-99.04485975339253</v>
+        <v>-143.7604788262511</v>
       </c>
       <c r="AN3">
-        <v>163.863451365583</v>
+        <v>136.2873245880946</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155594</v>
+        <v>2.599745963568909E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4721,22 +4721,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL4">
-        <v>14.83811452875883</v>
+        <v>2.396347970433406E-13</v>
       </c>
       <c r="AM4">
-        <v>-99.04485975339252</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN4">
-        <v>163.863451365583</v>
+        <v>136.2873245880946</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155594</v>
+        <v>2.599745963568909E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4852,22 +4852,22 @@
         <v>0.8618501377741073</v>
       </c>
       <c r="AL5">
-        <v>14.83811452875883</v>
+        <v>2.119857453272499E-13</v>
       </c>
       <c r="AM5">
-        <v>-99.04485975339253</v>
+        <v>-143.7604788262511</v>
       </c>
       <c r="AN5">
-        <v>163.863451365583</v>
+        <v>136.2873245880946</v>
       </c>
       <c r="AO5">
-        <v>14.83811452875883</v>
+        <v>2.396347970433406E-13</v>
       </c>
       <c r="AP5">
-        <v>-99.04485975339252</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AQ5">
-        <v>163.863451365583</v>
+        <v>136.2873245880946</v>
       </c>
     </row>
   </sheetData>
@@ -5127,22 +5127,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536514</v>
+        <v>3.726724087904993E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758096</v>
+        <v>-141.4823925534192</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546082</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155594</v>
+        <v>2.599745963568909E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5258,22 +5258,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL3">
-        <v>14.83811452875883</v>
+        <v>2.119857453272499E-13</v>
       </c>
       <c r="AM3">
-        <v>-99.04485975339253</v>
+        <v>-143.7604788262511</v>
       </c>
       <c r="AN3">
-        <v>163.863451365583</v>
+        <v>136.2873245880946</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155594</v>
+        <v>2.599745963568909E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5389,22 +5389,22 @@
         <v>0.8529812840863316</v>
       </c>
       <c r="AL4">
-        <v>14.83811452875883</v>
+        <v>2.396347970433406E-13</v>
       </c>
       <c r="AM4">
-        <v>-99.04485975339252</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AN4">
-        <v>163.863451365583</v>
+        <v>136.2873245880946</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155594</v>
+        <v>2.599745963568909E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -5520,22 +5520,22 @@
         <v>0.8618501377741073</v>
       </c>
       <c r="AL5">
-        <v>14.83811452875883</v>
+        <v>2.119857453272499E-13</v>
       </c>
       <c r="AM5">
-        <v>-99.04485975339253</v>
+        <v>-143.7604788262511</v>
       </c>
       <c r="AN5">
-        <v>163.863451365583</v>
+        <v>136.2873245880946</v>
       </c>
       <c r="AO5">
-        <v>14.83811452875883</v>
+        <v>2.396347970433406E-13</v>
       </c>
       <c r="AP5">
-        <v>-99.04485975339252</v>
+        <v>-143.7604788262512</v>
       </c>
       <c r="AQ5">
-        <v>163.863451365583</v>
+        <v>136.2873245880946</v>
       </c>
     </row>
   </sheetData>
@@ -5795,22 +5795,22 @@
         <v>0.9277102131260881</v>
       </c>
       <c r="AL2">
-        <v>0.05649667791871166</v>
+        <v>0.05649667790076105</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-179.9435033220763</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.2021272668917655</v>
+        <v>0.2021272668631934</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-179.7978727330858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5926,22 +5926,22 @@
         <v>0.9277102131260881</v>
       </c>
       <c r="AL3">
-        <v>0.2765061667575254</v>
+        <v>0.2765061667267382</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>-179.7234938332161</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.2021272668917655</v>
+        <v>0.2021272668631934</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-179.7978727330858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6057,22 +6057,22 @@
         <v>0.9277102131260881</v>
       </c>
       <c r="AL4">
-        <v>0.2765061667574982</v>
+        <v>0.2765061667267146</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>-179.7234938332161</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.2021272668917655</v>
+        <v>0.2021272668631934</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>-179.7978727330858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -6188,22 +6188,22 @@
         <v>0.9246604217307598</v>
       </c>
       <c r="AL5">
-        <v>0.2765061667575254</v>
+        <v>0.2765061667267382</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>-179.7234938332161</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.2765061667574982</v>
+        <v>0.2765061667267146</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>-179.7234938332161</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6463,22 +6463,22 @@
         <v>0.9277102131260881</v>
       </c>
       <c r="AL2">
-        <v>0.05649667791871166</v>
+        <v>0.05649667790076105</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-179.9435033220763</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.2021272668917655</v>
+        <v>0.2021272668631934</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-179.7978727330858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6594,22 +6594,22 @@
         <v>0.9277102131260881</v>
       </c>
       <c r="AL3">
-        <v>0.2765061667575254</v>
+        <v>0.2765061667267382</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>-179.7234938332161</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.2021272668917655</v>
+        <v>0.2021272668631934</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-179.7978727330858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6725,22 +6725,22 @@
         <v>0.9277102131260881</v>
       </c>
       <c r="AL4">
-        <v>0.2765061667574982</v>
+        <v>0.2765061667267146</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>-179.7234938332161</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.2021272668917655</v>
+        <v>0.2021272668631934</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>-179.7978727330858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -6856,22 +6856,22 @@
         <v>0.9246604217307598</v>
       </c>
       <c r="AL5">
-        <v>0.2765061667575254</v>
+        <v>0.2765061667267382</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>-179.7234938332161</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.2765061667574982</v>
+        <v>0.2765061667267146</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>-179.7234938332161</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7131,22 +7131,22 @@
         <v>0.9503466787071521</v>
       </c>
       <c r="AL2">
-        <v>22.95039220883865</v>
+        <v>2.05972647919493</v>
       </c>
       <c r="AM2">
-        <v>-100.0510163396221</v>
+        <v>-106.7173761755005</v>
       </c>
       <c r="AN2">
-        <v>153.3588929335853</v>
+        <v>85.88603023776172</v>
       </c>
       <c r="AO2">
-        <v>21.65937363933008</v>
+        <v>1.922347956102813</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390015488</v>
+        <v>-106.6455958068003</v>
       </c>
       <c r="AQ2">
-        <v>155.4443486114421</v>
+        <v>86.86130100824833</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7262,22 +7262,22 @@
         <v>0.9503466787071521</v>
       </c>
       <c r="AL3">
-        <v>20.87052935980883</v>
+        <v>1.834400787235734</v>
       </c>
       <c r="AM3">
-        <v>-99.22644568573375</v>
+        <v>-106.6064488821133</v>
       </c>
       <c r="AN3">
-        <v>156.6601459741473</v>
+        <v>87.43698758045056</v>
       </c>
       <c r="AO3">
-        <v>21.65937363933008</v>
+        <v>1.922347956102813</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390015488</v>
+        <v>-106.6455958068003</v>
       </c>
       <c r="AQ3">
-        <v>155.4443486114421</v>
+        <v>86.86130100824833</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7393,22 +7393,22 @@
         <v>0.9503466787071521</v>
       </c>
       <c r="AL4">
-        <v>20.87052935980883</v>
+        <v>1.834400787235711</v>
       </c>
       <c r="AM4">
-        <v>-99.22644568573376</v>
+        <v>-106.6064488821133</v>
       </c>
       <c r="AN4">
-        <v>156.6601459741473</v>
+        <v>87.43698758045051</v>
       </c>
       <c r="AO4">
-        <v>21.65937363933008</v>
+        <v>1.922347956102813</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390015488</v>
+        <v>-106.6455958068003</v>
       </c>
       <c r="AQ4">
-        <v>155.4443486114421</v>
+        <v>86.86130100824833</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -7524,22 +7524,22 @@
         <v>0.9443190052701121</v>
       </c>
       <c r="AL5">
-        <v>20.87052935980883</v>
+        <v>1.834400787235734</v>
       </c>
       <c r="AM5">
-        <v>-99.22644568573375</v>
+        <v>-106.6064488821133</v>
       </c>
       <c r="AN5">
-        <v>156.6601459741473</v>
+        <v>87.43698758045056</v>
       </c>
       <c r="AO5">
-        <v>20.87052935980883</v>
+        <v>1.834400787235711</v>
       </c>
       <c r="AP5">
-        <v>-99.22644568573376</v>
+        <v>-106.6064488821133</v>
       </c>
       <c r="AQ5">
-        <v>156.6601459741473</v>
+        <v>87.43698758045051</v>
       </c>
     </row>
   </sheetData>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352488</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -7708,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -7761,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -7814,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>73.5107010807436</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8077,22 +8077,22 @@
         <v>0.9503466787071521</v>
       </c>
       <c r="AL2">
-        <v>22.95039220883865</v>
+        <v>2.05972647919493</v>
       </c>
       <c r="AM2">
-        <v>-100.0510163396221</v>
+        <v>-106.7173761755005</v>
       </c>
       <c r="AN2">
-        <v>153.3588929335853</v>
+        <v>85.88603023776172</v>
       </c>
       <c r="AO2">
-        <v>21.65937363933008</v>
+        <v>1.922347956102813</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390015488</v>
+        <v>-106.6455958068003</v>
       </c>
       <c r="AQ2">
-        <v>155.4443486114421</v>
+        <v>86.86130100824833</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8208,22 +8208,22 @@
         <v>0.9503466787071521</v>
       </c>
       <c r="AL3">
-        <v>20.87052935980883</v>
+        <v>1.834400787235734</v>
       </c>
       <c r="AM3">
-        <v>-99.22644568573375</v>
+        <v>-106.6064488821133</v>
       </c>
       <c r="AN3">
-        <v>156.6601459741473</v>
+        <v>87.43698758045056</v>
       </c>
       <c r="AO3">
-        <v>21.65937363933008</v>
+        <v>1.922347956102813</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390015488</v>
+        <v>-106.6455958068003</v>
       </c>
       <c r="AQ3">
-        <v>155.4443486114421</v>
+        <v>86.86130100824833</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8339,22 +8339,22 @@
         <v>0.9503466787071521</v>
       </c>
       <c r="AL4">
-        <v>20.87052935980883</v>
+        <v>1.834400787235711</v>
       </c>
       <c r="AM4">
-        <v>-99.22644568573376</v>
+        <v>-106.6064488821133</v>
       </c>
       <c r="AN4">
-        <v>156.6601459741473</v>
+        <v>87.43698758045051</v>
       </c>
       <c r="AO4">
-        <v>21.65937363933008</v>
+        <v>1.922347956102813</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390015488</v>
+        <v>-106.6455958068003</v>
       </c>
       <c r="AQ4">
-        <v>155.4443486114421</v>
+        <v>86.86130100824833</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -8470,22 +8470,22 @@
         <v>0.9443190052701121</v>
       </c>
       <c r="AL5">
-        <v>20.87052935980883</v>
+        <v>1.834400787235734</v>
       </c>
       <c r="AM5">
-        <v>-99.22644568573375</v>
+        <v>-106.6064488821133</v>
       </c>
       <c r="AN5">
-        <v>156.6601459741473</v>
+        <v>87.43698758045056</v>
       </c>
       <c r="AO5">
-        <v>20.87052935980883</v>
+        <v>1.834400787235711</v>
       </c>
       <c r="AP5">
-        <v>-99.22644568573376</v>
+        <v>-106.6064488821133</v>
       </c>
       <c r="AQ5">
-        <v>156.6601459741473</v>
+        <v>87.43698758045051</v>
       </c>
     </row>
   </sheetData>
@@ -8745,22 +8745,22 @@
         <v>0.8420303184488573</v>
       </c>
       <c r="AL2">
-        <v>0.05982627485272397</v>
+        <v>0.05982627481619465</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-179.9401737252163</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.3273031180172733</v>
+        <v>0.3273031178306479</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-179.6726968823425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8876,22 +8876,22 @@
         <v>0.8420303184488573</v>
       </c>
       <c r="AL3">
-        <v>0.4531365618960083</v>
+        <v>0.4531365616877374</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>-179.5468634385058</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.3273031180172733</v>
+        <v>0.3273031178306479</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-179.6726968823425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9007,22 +9007,22 @@
         <v>0.8420303184488573</v>
       </c>
       <c r="AL4">
-        <v>0.4531365618960122</v>
+        <v>0.4531365616877806</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>-179.5468634385058</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.3273031180172733</v>
+        <v>0.3273031178306479</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>-179.6726968823425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -9138,22 +9138,22 @@
         <v>0.838650257730299</v>
       </c>
       <c r="AL5">
-        <v>0.4531365618960083</v>
+        <v>0.4531365616877374</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>-179.5468634385058</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.4531365618960122</v>
+        <v>0.4531365616877806</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>-179.5468634385058</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9413,22 +9413,22 @@
         <v>0.8420303184488573</v>
       </c>
       <c r="AL2">
-        <v>0.05982627485272397</v>
+        <v>0.05982627481619465</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-179.9401737252163</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.3273031180172733</v>
+        <v>0.3273031178306479</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-179.6726968823425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9544,22 +9544,22 @@
         <v>0.8420303184488573</v>
       </c>
       <c r="AL3">
-        <v>0.4531365618960083</v>
+        <v>0.4531365616877374</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>-179.5468634385058</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.3273031180172733</v>
+        <v>0.3273031178306479</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-179.6726968823425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9675,22 +9675,22 @@
         <v>0.8420303184488573</v>
       </c>
       <c r="AL4">
-        <v>0.4531365618960122</v>
+        <v>0.4531365616877806</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>-179.5468634385058</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.3273031180172733</v>
+        <v>0.3273031178306479</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>-179.6726968823425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -9806,22 +9806,22 @@
         <v>0.838650257730299</v>
       </c>
       <c r="AL5">
-        <v>0.4531365618960083</v>
+        <v>0.4531365616877374</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>-179.5468634385058</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.4531365618960122</v>
+        <v>0.4531365616877806</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>-179.5468634385058</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10081,22 +10081,22 @@
         <v>0.8699692122462657</v>
       </c>
       <c r="AL2">
-        <v>22.69114698921615</v>
+        <v>2.055086913287214</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966786927</v>
+        <v>-107.1537816542741</v>
       </c>
       <c r="AN2">
-        <v>153.5481119598529</v>
+        <v>85.60853206981567</v>
       </c>
       <c r="AO2">
-        <v>21.43395682535118</v>
+        <v>1.84313717050446</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507041889</v>
+        <v>-104.9984074381874</v>
       </c>
       <c r="AQ2">
-        <v>156.5869817588516</v>
+        <v>89.0112927065375</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10212,22 +10212,22 @@
         <v>0.8699692122462657</v>
       </c>
       <c r="AL3">
-        <v>20.59757018817725</v>
+        <v>1.697274798967977</v>
       </c>
       <c r="AM3">
-        <v>-96.09329345652415</v>
+        <v>-103.774646256571</v>
       </c>
       <c r="AN3">
-        <v>158.2605573389836</v>
+        <v>90.89841914161224</v>
       </c>
       <c r="AO3">
-        <v>21.43395682535118</v>
+        <v>1.84313717050446</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507041889</v>
+        <v>-104.9984074381874</v>
       </c>
       <c r="AQ3">
-        <v>156.5869817588516</v>
+        <v>89.0112927065375</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10343,22 +10343,22 @@
         <v>0.8699692122462657</v>
       </c>
       <c r="AL4">
-        <v>20.59757018817726</v>
+        <v>1.697274798967968</v>
       </c>
       <c r="AM4">
-        <v>-96.09329345652414</v>
+        <v>-103.774646256571</v>
       </c>
       <c r="AN4">
-        <v>158.2605573389836</v>
+        <v>90.89841914161222</v>
       </c>
       <c r="AO4">
-        <v>21.43395682535118</v>
+        <v>1.84313717050446</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507041889</v>
+        <v>-104.9984074381874</v>
       </c>
       <c r="AQ4">
-        <v>156.5869817588516</v>
+        <v>89.0112927065375</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -10474,22 +10474,22 @@
         <v>0.8690194829182928</v>
       </c>
       <c r="AL5">
-        <v>20.59757018817725</v>
+        <v>1.697274798967977</v>
       </c>
       <c r="AM5">
-        <v>-96.09329345652415</v>
+        <v>-103.774646256571</v>
       </c>
       <c r="AN5">
-        <v>158.2605573389836</v>
+        <v>90.89841914161224</v>
       </c>
       <c r="AO5">
-        <v>20.59757018817726</v>
+        <v>1.697274798967968</v>
       </c>
       <c r="AP5">
-        <v>-96.09329345652414</v>
+        <v>-103.774646256571</v>
       </c>
       <c r="AQ5">
-        <v>158.2605573389836</v>
+        <v>90.89841914161222</v>
       </c>
     </row>
   </sheetData>
@@ -10749,22 +10749,22 @@
         <v>0.8699692122462657</v>
       </c>
       <c r="AL2">
-        <v>22.69114698921615</v>
+        <v>2.055086913287214</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966786927</v>
+        <v>-107.1537816542741</v>
       </c>
       <c r="AN2">
-        <v>153.5481119598529</v>
+        <v>85.60853206981567</v>
       </c>
       <c r="AO2">
-        <v>21.43395682535118</v>
+        <v>1.84313717050446</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507041889</v>
+        <v>-104.9984074381874</v>
       </c>
       <c r="AQ2">
-        <v>156.5869817588516</v>
+        <v>89.0112927065375</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10880,22 +10880,22 @@
         <v>0.8699692122462657</v>
       </c>
       <c r="AL3">
-        <v>20.59757018817725</v>
+        <v>1.697274798967977</v>
       </c>
       <c r="AM3">
-        <v>-96.09329345652415</v>
+        <v>-103.774646256571</v>
       </c>
       <c r="AN3">
-        <v>158.2605573389836</v>
+        <v>90.89841914161224</v>
       </c>
       <c r="AO3">
-        <v>21.43395682535118</v>
+        <v>1.84313717050446</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507041889</v>
+        <v>-104.9984074381874</v>
       </c>
       <c r="AQ3">
-        <v>156.5869817588516</v>
+        <v>89.0112927065375</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11011,22 +11011,22 @@
         <v>0.8699692122462657</v>
       </c>
       <c r="AL4">
-        <v>20.59757018817726</v>
+        <v>1.697274798967968</v>
       </c>
       <c r="AM4">
-        <v>-96.09329345652414</v>
+        <v>-103.774646256571</v>
       </c>
       <c r="AN4">
-        <v>158.2605573389836</v>
+        <v>90.89841914161222</v>
       </c>
       <c r="AO4">
-        <v>21.43395682535118</v>
+        <v>1.84313717050446</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507041889</v>
+        <v>-104.9984074381874</v>
       </c>
       <c r="AQ4">
-        <v>156.5869817588516</v>
+        <v>89.0112927065375</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -11142,22 +11142,22 @@
         <v>0.8690194829182928</v>
       </c>
       <c r="AL5">
-        <v>20.59757018817725</v>
+        <v>1.697274798967977</v>
       </c>
       <c r="AM5">
-        <v>-96.09329345652415</v>
+        <v>-103.774646256571</v>
       </c>
       <c r="AN5">
-        <v>158.2605573389836</v>
+        <v>90.89841914161224</v>
       </c>
       <c r="AO5">
-        <v>20.59757018817726</v>
+        <v>1.697274798967968</v>
       </c>
       <c r="AP5">
-        <v>-96.09329345652414</v>
+        <v>-103.774646256571</v>
       </c>
       <c r="AQ5">
-        <v>158.2605573389836</v>
+        <v>90.89841914161222</v>
       </c>
     </row>
   </sheetData>
@@ -11417,22 +11417,22 @@
         <v>1.014883215215973</v>
       </c>
       <c r="AL2">
-        <v>32.27168657246929</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999774</v>
+        <v>-147.7283134275611</v>
       </c>
       <c r="AN2">
-        <v>148.0329896420457</v>
+        <v>148.032989641989</v>
       </c>
       <c r="AO2">
-        <v>33.1268115785238</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999767</v>
+        <v>-146.873188421504</v>
       </c>
       <c r="AQ2">
-        <v>147.9374049578646</v>
+        <v>147.9374049578102</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11548,22 +11548,22 @@
         <v>1.014883215215973</v>
       </c>
       <c r="AL3">
-        <v>33.62863297129313</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999763</v>
+        <v>-146.371367028733</v>
       </c>
       <c r="AN3">
-        <v>147.8040385391567</v>
+        <v>147.8040385391042</v>
       </c>
       <c r="AO3">
-        <v>33.1268115785238</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999767</v>
+        <v>-146.873188421504</v>
       </c>
       <c r="AQ3">
-        <v>147.9374049578646</v>
+        <v>147.9374049578102</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11679,22 +11679,22 @@
         <v>1.014883215215973</v>
       </c>
       <c r="AL4">
-        <v>33.62863297129312</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999763</v>
+        <v>-146.371367028733</v>
       </c>
       <c r="AN4">
-        <v>147.8040385391567</v>
+        <v>147.8040385391042</v>
       </c>
       <c r="AO4">
-        <v>33.1268115785238</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999767</v>
+        <v>-146.873188421504</v>
       </c>
       <c r="AQ4">
-        <v>147.9374049578646</v>
+        <v>147.9374049578102</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -11810,22 +11810,22 @@
         <v>1.003960414439509</v>
       </c>
       <c r="AL5">
-        <v>33.62863297129313</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999763</v>
+        <v>-146.371367028733</v>
       </c>
       <c r="AN5">
-        <v>147.8040385391567</v>
+        <v>147.8040385391042</v>
       </c>
       <c r="AO5">
-        <v>33.62863297129312</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999763</v>
+        <v>-146.371367028733</v>
       </c>
       <c r="AQ5">
-        <v>147.8040385391567</v>
+        <v>147.8040385391042</v>
       </c>
     </row>
   </sheetData>
@@ -12085,22 +12085,22 @@
         <v>1.014883215215973</v>
       </c>
       <c r="AL2">
-        <v>32.27168657246929</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999774</v>
+        <v>-147.7283134275611</v>
       </c>
       <c r="AN2">
-        <v>148.0329896420457</v>
+        <v>148.032989641989</v>
       </c>
       <c r="AO2">
-        <v>33.1268115785238</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999767</v>
+        <v>-146.873188421504</v>
       </c>
       <c r="AQ2">
-        <v>147.9374049578646</v>
+        <v>147.9374049578102</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12216,22 +12216,22 @@
         <v>1.014883215215973</v>
       </c>
       <c r="AL3">
-        <v>33.62863297129313</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999763</v>
+        <v>-146.371367028733</v>
       </c>
       <c r="AN3">
-        <v>147.8040385391567</v>
+        <v>147.8040385391042</v>
       </c>
       <c r="AO3">
-        <v>33.1268115785238</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999767</v>
+        <v>-146.873188421504</v>
       </c>
       <c r="AQ3">
-        <v>147.9374049578646</v>
+        <v>147.9374049578102</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12347,22 +12347,22 @@
         <v>1.014883215215973</v>
       </c>
       <c r="AL4">
-        <v>33.62863297129312</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999763</v>
+        <v>-146.371367028733</v>
       </c>
       <c r="AN4">
-        <v>147.8040385391567</v>
+        <v>147.8040385391042</v>
       </c>
       <c r="AO4">
-        <v>33.1268115785238</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999767</v>
+        <v>-146.873188421504</v>
       </c>
       <c r="AQ4">
-        <v>147.9374049578646</v>
+        <v>147.9374049578102</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -12478,22 +12478,22 @@
         <v>1.003960414439509</v>
       </c>
       <c r="AL5">
-        <v>33.62863297129313</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999763</v>
+        <v>-146.371367028733</v>
       </c>
       <c r="AN5">
-        <v>147.8040385391567</v>
+        <v>147.8040385391042</v>
       </c>
       <c r="AO5">
-        <v>33.62863297129312</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999763</v>
+        <v>-146.371367028733</v>
       </c>
       <c r="AQ5">
-        <v>147.8040385391567</v>
+        <v>147.8040385391042</v>
       </c>
     </row>
   </sheetData>
@@ -12753,22 +12753,22 @@
         <v>1.040122732411645</v>
       </c>
       <c r="AL2">
-        <v>31.15761007791376</v>
+        <v>-33.12503482398865</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999747</v>
+        <v>-139.212415080177</v>
       </c>
       <c r="AN2">
-        <v>147.9584136939147</v>
+        <v>148.1841785064804</v>
       </c>
       <c r="AO2">
-        <v>31.81277621807776</v>
+        <v>-29.72036582402619</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999739</v>
+        <v>-139.1548791201984</v>
       </c>
       <c r="AQ2">
-        <v>147.8257682689542</v>
+        <v>147.3382240646751</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12884,22 +12884,22 @@
         <v>1.040122732411645</v>
       </c>
       <c r="AL3">
-        <v>32.20180633173356</v>
+        <v>-27.77641377061646</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999733</v>
+        <v>-139.1268703916235</v>
       </c>
       <c r="AN3">
-        <v>147.7006400663207</v>
+        <v>146.8296931457364</v>
       </c>
       <c r="AO3">
-        <v>31.81277621807776</v>
+        <v>-29.72036582402619</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999739</v>
+        <v>-139.1548791201984</v>
       </c>
       <c r="AQ3">
-        <v>147.8257682689542</v>
+        <v>147.3382240646751</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13015,22 +13015,22 @@
         <v>1.040122732411645</v>
       </c>
       <c r="AL4">
-        <v>32.20180633173356</v>
+        <v>-27.77641377061655</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999733</v>
+        <v>-139.1268703916235</v>
       </c>
       <c r="AN4">
-        <v>147.7006400663207</v>
+        <v>146.8296931457365</v>
       </c>
       <c r="AO4">
-        <v>31.81277621807776</v>
+        <v>-29.72036582402619</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999739</v>
+        <v>-139.1548791201984</v>
       </c>
       <c r="AQ4">
-        <v>147.8257682689542</v>
+        <v>147.3382240646751</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -13146,22 +13146,22 @@
         <v>1.031243254471447</v>
       </c>
       <c r="AL5">
-        <v>32.20180633173356</v>
+        <v>-27.77641377061646</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999733</v>
+        <v>-139.1268703916235</v>
       </c>
       <c r="AN5">
-        <v>147.7006400663207</v>
+        <v>146.8296931457364</v>
       </c>
       <c r="AO5">
-        <v>32.20180633173356</v>
+        <v>-27.77641377061655</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999733</v>
+        <v>-139.1268703916235</v>
       </c>
       <c r="AQ5">
-        <v>147.7006400663207</v>
+        <v>146.8296931457365</v>
       </c>
     </row>
   </sheetData>
@@ -13421,22 +13421,22 @@
         <v>1.040122732411645</v>
       </c>
       <c r="AL2">
-        <v>31.15761007791376</v>
+        <v>-33.12503482398865</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999747</v>
+        <v>-139.212415080177</v>
       </c>
       <c r="AN2">
-        <v>147.9584136939147</v>
+        <v>148.1841785064804</v>
       </c>
       <c r="AO2">
-        <v>31.81277621807776</v>
+        <v>-29.72036582402619</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999739</v>
+        <v>-139.1548791201984</v>
       </c>
       <c r="AQ2">
-        <v>147.8257682689542</v>
+        <v>147.3382240646751</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13552,22 +13552,22 @@
         <v>1.040122732411645</v>
       </c>
       <c r="AL3">
-        <v>32.20180633173356</v>
+        <v>-27.77641377061646</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999733</v>
+        <v>-139.1268703916235</v>
       </c>
       <c r="AN3">
-        <v>147.7006400663207</v>
+        <v>146.8296931457364</v>
       </c>
       <c r="AO3">
-        <v>31.81277621807776</v>
+        <v>-29.72036582402619</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999739</v>
+        <v>-139.1548791201984</v>
       </c>
       <c r="AQ3">
-        <v>147.8257682689542</v>
+        <v>147.3382240646751</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13683,22 +13683,22 @@
         <v>1.040122732411645</v>
       </c>
       <c r="AL4">
-        <v>32.20180633173356</v>
+        <v>-27.77641377061655</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999733</v>
+        <v>-139.1268703916235</v>
       </c>
       <c r="AN4">
-        <v>147.7006400663207</v>
+        <v>146.8296931457365</v>
       </c>
       <c r="AO4">
-        <v>31.81277621807776</v>
+        <v>-29.72036582402619</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999739</v>
+        <v>-139.1548791201984</v>
       </c>
       <c r="AQ4">
-        <v>147.8257682689542</v>
+        <v>147.3382240646751</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -13814,22 +13814,22 @@
         <v>1.031243254471447</v>
       </c>
       <c r="AL5">
-        <v>32.20180633173356</v>
+        <v>-27.77641377061646</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999733</v>
+        <v>-139.1268703916235</v>
       </c>
       <c r="AN5">
-        <v>147.7006400663207</v>
+        <v>146.8296931457364</v>
       </c>
       <c r="AO5">
-        <v>32.20180633173356</v>
+        <v>-27.77641377061655</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999733</v>
+        <v>-139.1268703916235</v>
       </c>
       <c r="AQ5">
-        <v>147.7006400663207</v>
+        <v>146.8296931457365</v>
       </c>
     </row>
   </sheetData>
@@ -14089,22 +14089,22 @@
         <v>0.9153011977098526</v>
       </c>
       <c r="AL2">
-        <v>32.37618031355603</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999774</v>
+        <v>-147.6238196864016</v>
       </c>
       <c r="AN2">
-        <v>147.9448907708882</v>
+        <v>147.9448907708998</v>
       </c>
       <c r="AO2">
-        <v>33.60426597448819</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999764</v>
+        <v>-146.3957340254715</v>
       </c>
       <c r="AQ2">
-        <v>148.1055649583977</v>
+        <v>148.1055649584091</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -14220,22 +14220,22 @@
         <v>0.9153011977098526</v>
       </c>
       <c r="AL3">
-        <v>34.29796760261699</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999754</v>
+        <v>-145.7020323973445</v>
       </c>
       <c r="AN3">
-        <v>148.0232122979766</v>
+        <v>148.0232122979875</v>
       </c>
       <c r="AO3">
-        <v>33.60426597448819</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999764</v>
+        <v>-146.3957340254715</v>
       </c>
       <c r="AQ3">
-        <v>148.1055649583977</v>
+        <v>148.1055649584091</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -14351,22 +14351,22 @@
         <v>0.9153011977098526</v>
       </c>
       <c r="AL4">
-        <v>34.29796760261698</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999754</v>
+        <v>-145.7020323973445</v>
       </c>
       <c r="AN4">
-        <v>148.0232122979766</v>
+        <v>148.0232122979875</v>
       </c>
       <c r="AO4">
-        <v>33.60426597448819</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999764</v>
+        <v>-146.3957340254715</v>
       </c>
       <c r="AQ4">
-        <v>148.1055649583977</v>
+        <v>148.1055649584091</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -14482,22 +14482,22 @@
         <v>0.9023828002404692</v>
       </c>
       <c r="AL5">
-        <v>34.29796760261699</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999754</v>
+        <v>-145.7020323973445</v>
       </c>
       <c r="AN5">
-        <v>148.0232122979766</v>
+        <v>148.0232122979875</v>
       </c>
       <c r="AO5">
-        <v>34.29796760261698</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999754</v>
+        <v>-145.7020323973445</v>
       </c>
       <c r="AQ5">
-        <v>148.0232122979766</v>
+        <v>148.0232122979875</v>
       </c>
     </row>
   </sheetData>
@@ -14613,10 +14613,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P2">
-        <v>45.00000000014268</v>
+        <v>-10.05101633965328</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14666,10 +14666,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P3">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14719,10 +14719,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P4">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -14772,10 +14772,10 @@
         <v>0.7610792363879809</v>
       </c>
       <c r="P5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
     </row>
   </sheetData>
@@ -15035,22 +15035,22 @@
         <v>0.9153011977098526</v>
       </c>
       <c r="AL2">
-        <v>32.37618031355603</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999774</v>
+        <v>-147.6238196864016</v>
       </c>
       <c r="AN2">
-        <v>147.9448907708882</v>
+        <v>147.9448907708998</v>
       </c>
       <c r="AO2">
-        <v>33.60426597448819</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999764</v>
+        <v>-146.3957340254715</v>
       </c>
       <c r="AQ2">
-        <v>148.1055649583977</v>
+        <v>148.1055649584091</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15166,22 +15166,22 @@
         <v>0.9153011977098526</v>
       </c>
       <c r="AL3">
-        <v>34.29796760261699</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999754</v>
+        <v>-145.7020323973445</v>
       </c>
       <c r="AN3">
-        <v>148.0232122979766</v>
+        <v>148.0232122979875</v>
       </c>
       <c r="AO3">
-        <v>33.60426597448819</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999764</v>
+        <v>-146.3957340254715</v>
       </c>
       <c r="AQ3">
-        <v>148.1055649583977</v>
+        <v>148.1055649584091</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15297,22 +15297,22 @@
         <v>0.9153011977098526</v>
       </c>
       <c r="AL4">
-        <v>34.29796760261698</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999754</v>
+        <v>-145.7020323973445</v>
       </c>
       <c r="AN4">
-        <v>148.0232122979766</v>
+        <v>148.0232122979875</v>
       </c>
       <c r="AO4">
-        <v>33.60426597448819</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999764</v>
+        <v>-146.3957340254715</v>
       </c>
       <c r="AQ4">
-        <v>148.1055649583977</v>
+        <v>148.1055649584091</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -15428,22 +15428,22 @@
         <v>0.9023828002404692</v>
       </c>
       <c r="AL5">
-        <v>34.29796760261699</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999754</v>
+        <v>-145.7020323973445</v>
       </c>
       <c r="AN5">
-        <v>148.0232122979766</v>
+        <v>148.0232122979875</v>
       </c>
       <c r="AO5">
-        <v>34.29796760261698</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999754</v>
+        <v>-145.7020323973445</v>
       </c>
       <c r="AQ5">
-        <v>148.0232122979766</v>
+        <v>148.0232122979875</v>
       </c>
     </row>
   </sheetData>
@@ -15703,22 +15703,22 @@
         <v>0.9392780664697753</v>
       </c>
       <c r="AL2">
-        <v>31.21449995361951</v>
+        <v>-33.13110206389089</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999747</v>
+        <v>-139.1611711215787</v>
       </c>
       <c r="AN2">
-        <v>147.8685277191759</v>
+        <v>148.0765151544961</v>
       </c>
       <c r="AO2">
-        <v>32.22485107094072</v>
+        <v>-26.31331180194492</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999734</v>
+        <v>-139.1220723182847</v>
       </c>
       <c r="AQ2">
-        <v>147.9810480345871</v>
+        <v>146.8682275371679</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15834,22 +15834,22 @@
         <v>0.9392780664697753</v>
       </c>
       <c r="AL3">
-        <v>32.80283255042304</v>
+        <v>-22.54037501752185</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999726</v>
+        <v>-139.1568268946852</v>
       </c>
       <c r="AN3">
-        <v>147.9397378299686</v>
+        <v>146.1701077073158</v>
       </c>
       <c r="AO3">
-        <v>32.22485107094072</v>
+        <v>-26.31331180194492</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999734</v>
+        <v>-139.1220723182847</v>
       </c>
       <c r="AQ3">
-        <v>147.9810480345871</v>
+        <v>146.8682275371679</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15965,22 +15965,22 @@
         <v>0.9392780664697753</v>
       </c>
       <c r="AL4">
-        <v>32.80283255042304</v>
+        <v>-22.54037501752187</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999726</v>
+        <v>-139.1568268946852</v>
       </c>
       <c r="AN4">
-        <v>147.9397378299686</v>
+        <v>146.1701077073158</v>
       </c>
       <c r="AO4">
-        <v>32.22485107094072</v>
+        <v>-26.31331180194492</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999734</v>
+        <v>-139.1220723182847</v>
       </c>
       <c r="AQ4">
-        <v>147.9810480345871</v>
+        <v>146.8682275371679</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -16096,22 +16096,22 @@
         <v>0.9284702471193655</v>
       </c>
       <c r="AL5">
-        <v>32.80283255042304</v>
+        <v>-22.54037501752185</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999726</v>
+        <v>-139.1568268946852</v>
       </c>
       <c r="AN5">
-        <v>147.9397378299686</v>
+        <v>146.1701077073158</v>
       </c>
       <c r="AO5">
-        <v>32.80283255042304</v>
+        <v>-22.54037501752187</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999726</v>
+        <v>-139.1568268946852</v>
       </c>
       <c r="AQ5">
-        <v>147.9397378299686</v>
+        <v>146.1701077073158</v>
       </c>
     </row>
   </sheetData>
@@ -16371,22 +16371,22 @@
         <v>0.9392780664697753</v>
       </c>
       <c r="AL2">
-        <v>31.21449995361951</v>
+        <v>-33.13110206389089</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999747</v>
+        <v>-139.1611711215787</v>
       </c>
       <c r="AN2">
-        <v>147.8685277191759</v>
+        <v>148.0765151544961</v>
       </c>
       <c r="AO2">
-        <v>32.22485107094072</v>
+        <v>-26.31331180194492</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999734</v>
+        <v>-139.1220723182847</v>
       </c>
       <c r="AQ2">
-        <v>147.9810480345871</v>
+        <v>146.8682275371679</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -16502,22 +16502,22 @@
         <v>0.9392780664697753</v>
       </c>
       <c r="AL3">
-        <v>32.80283255042304</v>
+        <v>-22.54037501752185</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999726</v>
+        <v>-139.1568268946852</v>
       </c>
       <c r="AN3">
-        <v>147.9397378299686</v>
+        <v>146.1701077073158</v>
       </c>
       <c r="AO3">
-        <v>32.22485107094072</v>
+        <v>-26.31331180194492</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999734</v>
+        <v>-139.1220723182847</v>
       </c>
       <c r="AQ3">
-        <v>147.9810480345871</v>
+        <v>146.8682275371679</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -16633,22 +16633,22 @@
         <v>0.9392780664697753</v>
       </c>
       <c r="AL4">
-        <v>32.80283255042304</v>
+        <v>-22.54037501752187</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999726</v>
+        <v>-139.1568268946852</v>
       </c>
       <c r="AN4">
-        <v>147.9397378299686</v>
+        <v>146.1701077073158</v>
       </c>
       <c r="AO4">
-        <v>32.22485107094072</v>
+        <v>-26.31331180194492</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999734</v>
+        <v>-139.1220723182847</v>
       </c>
       <c r="AQ4">
-        <v>147.9810480345871</v>
+        <v>146.8682275371679</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -16764,22 +16764,22 @@
         <v>0.9284702471193655</v>
       </c>
       <c r="AL5">
-        <v>32.80283255042304</v>
+        <v>-22.54037501752185</v>
       </c>
       <c r="AM5">
-        <v>-89.99999999999726</v>
+        <v>-139.1568268946852</v>
       </c>
       <c r="AN5">
-        <v>147.9397378299686</v>
+        <v>146.1701077073158</v>
       </c>
       <c r="AO5">
-        <v>32.80283255042304</v>
+        <v>-22.54037501752187</v>
       </c>
       <c r="AP5">
-        <v>-89.99999999999726</v>
+        <v>-139.1568268946852</v>
       </c>
       <c r="AQ5">
-        <v>147.9397378299686</v>
+        <v>146.1701077073158</v>
       </c>
     </row>
   </sheetData>
@@ -16895,10 +16895,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P2">
-        <v>45.00000000014268</v>
+        <v>-10.05101633965328</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -16948,10 +16948,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P3">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17001,10 +17001,10 @@
         <v>0.8020156209364412</v>
       </c>
       <c r="P4">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014401</v>
+        <v>-9.529673900180338</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17054,10 +17054,10 @@
         <v>0.7610792363879809</v>
       </c>
       <c r="P5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
       <c r="Q5">
-        <v>45.00000000014474</v>
+        <v>-9.226445685756126</v>
       </c>
     </row>
   </sheetData>
@@ -17173,10 +17173,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749283</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.67231643316981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17226,10 +17226,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.67231643316981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17279,10 +17279,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.67231643316981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17332,10 +17332,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17451,10 +17451,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749281</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.67231643316977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17504,10 +17504,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.67231643316977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17557,10 +17557,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.67231643316977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17610,10 +17610,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>62.37332949917577</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17729,10 +17729,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P2">
-        <v>44.99999999986316</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17782,10 +17782,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P3">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17835,10 +17835,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P4">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17888,10 +17888,10 @@
         <v>0.6550793552671756</v>
       </c>
       <c r="P5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
     </row>
   </sheetData>
@@ -18007,10 +18007,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P2">
-        <v>44.99999999986316</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -18060,10 +18060,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P3">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -18113,10 +18113,10 @@
         <v>0.701930307789607</v>
       </c>
       <c r="P4">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986814</v>
+        <v>-7.634345070499246</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -18166,10 +18166,10 @@
         <v>0.6550793552671756</v>
       </c>
       <c r="P5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603758</v>
       </c>
       <c r="Q5">
-        <v>44.99999999987112</v>
+        <v>-6.093293456603762</v>
       </c>
     </row>
   </sheetData>
@@ -18429,22 +18429,22 @@
         <v>0.9526279648047562</v>
       </c>
       <c r="AL2">
-        <v>-4.07827035008308E-12</v>
+        <v>1.591102290394586E-12</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999773</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999874</v>
       </c>
       <c r="AO2">
-        <v>-1.247331485818115E-11</v>
+        <v>1.57040048766705E-12</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999521</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999613</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -18560,22 +18560,22 @@
         <v>0.9526279648047562</v>
       </c>
       <c r="AL3">
-        <v>-1.427385555746306E-11</v>
+        <v>1.33885638337923E-12</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999472</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999793</v>
+        <v>-179.999999999955</v>
       </c>
       <c r="AO3">
-        <v>-1.247331485818115E-11</v>
+        <v>1.57040048766705E-12</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999521</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999613</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -18691,22 +18691,22 @@
         <v>0.9526279648047562</v>
       </c>
       <c r="AL4">
-        <v>-1.429441254449796E-11</v>
+        <v>1.452591567033535E-12</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999469</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999552</v>
       </c>
       <c r="AO4">
-        <v>-1.247331485818115E-11</v>
+        <v>1.57040048766705E-12</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999521</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999613</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -18822,22 +18822,22 @@
         <v>0.9526279648057691</v>
       </c>
       <c r="AL5">
-        <v>-1.427385555746306E-11</v>
+        <v>1.33885638337923E-12</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>179.9999999999472</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999999793</v>
+        <v>-179.999999999955</v>
       </c>
       <c r="AO5">
-        <v>-1.429441254449796E-11</v>
+        <v>1.452591567033535E-12</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>179.9999999999469</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999999792</v>
+        <v>-179.9999999999552</v>
       </c>
     </row>
   </sheetData>
